--- a/Addons/HD Enabeler/HD Enabeler BOM.xlsx
+++ b/Addons/HD Enabeler/HD Enabeler BOM.xlsx
@@ -91,7 +91,7 @@
     <t>SH1.0-6P</t>
   </si>
   <si>
-    <t>IN,OUT</t>
+    <t>EXP,IN,OUT</t>
   </si>
   <si>
     <t>CONN-SMD_6P-P1.00-H-M_AFC10-S06QCC-00</t>
@@ -713,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>

--- a/Addons/HD Enabeler/HD Enabeler BOM.xlsx
+++ b/Addons/HD Enabeler/HD Enabeler BOM.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AD6165-6FC0-451A-8D3F-056B6E354F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1860" yWindow="1965" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="BOM_Board1_ModXo SEM_2024-12-03" state="visible" r:id="rId4"/>
+    <sheet name="BOM_Board1_ModXo SEM_2024-12-03" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>No.</t>
   </si>
@@ -106,24 +110,12 @@
     <t>4</t>
   </si>
   <si>
-    <t>10uH</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
     <t>L0805</t>
   </si>
   <si>
-    <t>SDFL2012S100KTF</t>
-  </si>
-  <si>
-    <t>Sunlord(顺络)</t>
-  </si>
-  <si>
-    <t>C1046</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -227,19 +219,25 @@
   </si>
   <si>
     <t>C23922</t>
+  </si>
+  <si>
+    <t>200ohm ferrite bead</t>
+  </si>
+  <si>
+    <t>200ohm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -602,12 +600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
@@ -748,57 +748,45 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -806,31 +794,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -838,31 +826,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -870,31 +858,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -902,31 +890,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
         <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -934,37 +922,37 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
         <v>67</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>71</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -972,6 +960,6 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/Addons/HD Enabeler/HD Enabeler BOM.xlsx
+++ b/Addons/HD Enabeler/HD Enabeler BOM.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AD6165-6FC0-451A-8D3F-056B6E354F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1860" yWindow="1965" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="BOM_Board1_ModXo SEM_2024-12-03" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="BOM_Board1_ModXo SEM_2024-12-12" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>No.</t>
   </si>
@@ -110,12 +106,21 @@
     <t>4</t>
   </si>
   <si>
+    <t>PBY201209T-201Y-N</t>
+  </si>
+  <si>
     <t>L1</t>
   </si>
   <si>
     <t>L0805</t>
   </si>
   <si>
+    <t>chilisin(奇力新)</t>
+  </si>
+  <si>
+    <t>C280676</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -219,25 +224,19 @@
   </si>
   <si>
     <t>C23922</t>
-  </si>
-  <si>
-    <t>200ohm ferrite bead</t>
-  </si>
-  <si>
-    <t>200ohm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -600,14 +599,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
@@ -748,45 +745,57 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -794,31 +803,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -826,31 +835,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -858,31 +867,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -890,31 +899,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -922,37 +931,37 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -960,6 +969,6 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>